--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail10 Features.xlsx
@@ -3745,7 +3745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3756,29 +3756,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3799,115 +3797,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3924,72 +3912,66 @@
         <v>2.217181605466839e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2422059069335243</v>
+        <v>8.940548873467524e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7844134269707159</v>
+        <v>3.520959286026504e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.940548873467524e-07</v>
+        <v>0.03867850165863173</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.520959286026504e-06</v>
+        <v>0.190995016544348</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03867850165863173</v>
+        <v>0.03793730485976411</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.190995016544348</v>
+        <v>1.567254025435014</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03793730485976411</v>
+        <v>1.494533529991481</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.481808023480319</v>
+        <v>4.369202400325602</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.494533529991481</v>
+        <v>1.032298586401896e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.369202400325602</v>
+        <v>22163076.05493517</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.032298586401896e-14</v>
+        <v>4.707026004929194e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>22163076.05493517</v>
+        <v>5.070670685237133</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.707026004929194e-06</v>
+        <v>0.0001142721860961022</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.070670685237133</v>
+        <v>7.952863778361995</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001142721860961022</v>
+        <v>1.547375435826566</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.952863778361995</v>
+        <v>0.007227492057312305</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.547375435826566</v>
+        <v>3.31335404479817</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007227492057312305</v>
+        <v>0.9448964492188814</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.31335404479817</v>
+        <v>1.832064177437867</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9448964492188814</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.832064177437867</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1956910104629473</v>
       </c>
     </row>
@@ -4004,72 +3986,66 @@
         <v>2.161404045077769e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2533214238545589</v>
+        <v>7.586591235575354e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7638094407761864</v>
+        <v>3.528449318068295e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.586591235575354e-07</v>
+        <v>0.03033371525260502</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.528449318068295e-06</v>
+        <v>0.1778114543556147</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03033371525260502</v>
+        <v>0.03251449456990087</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1778114543556147</v>
+        <v>1.554482517098464</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03251449456990087</v>
+        <v>1.484393862019327</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.468803459797981</v>
+        <v>4.366055275027145</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.484393862019327</v>
+        <v>1.033787318759561e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.366055275027145</v>
+        <v>22438062.38728945</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.033787318759561e-14</v>
+        <v>4.640904557857989e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>22438062.38728945</v>
+        <v>5.20477431671253</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.640904557857989e-06</v>
+        <v>0.0001227844799217748</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.20477431671253</v>
+        <v>7.225391984729532</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001227844799217748</v>
+        <v>1.680156986671397</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.225391984729532</v>
+        <v>0.006410122084397341</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.680156986671397</v>
+        <v>3.27751887508435</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006410122084397341</v>
+        <v>0.944202980280042</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.27751887508435</v>
+        <v>1.857319392651069</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.944202980280042</v>
+        <v>13</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.857319392651069</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.184645047502605</v>
       </c>
     </row>
@@ -4084,72 +4060,66 @@
         <v>2.136294882879074e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2143969875749412</v>
+        <v>7.586591235575354e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7255836156304163</v>
+        <v>3.534235841782167e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.586591235575354e-07</v>
+        <v>0.02384097161971446</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.534235841782167e-06</v>
+        <v>0.1684446024643652</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02384097161971446</v>
+        <v>0.02892686752757222</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1684446024643652</v>
+        <v>1.560291066487482</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02892686752757222</v>
+        <v>1.489500452561731</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.468296081628311</v>
+        <v>4.348482244533409</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.489500452561731</v>
+        <v>1.04215965776145e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.348482244533409</v>
+        <v>23503403.25049851</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.04215965776145e-14</v>
+        <v>4.516252190600224e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>23503403.25049851</v>
+        <v>5.756993793967884</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.516252190600224e-06</v>
+        <v>0.0001230165090272695</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.756993793967884</v>
+        <v>9.023375704370421</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001230165090272695</v>
+        <v>1.324210058510238</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.023375704370421</v>
+        <v>0.01001616520618564</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.324210058510238</v>
+        <v>3.170741274165454</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01001616520618564</v>
+        <v>0.945213388091014</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.170741274165454</v>
+        <v>1.889211922929246</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.945213388091014</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.889211922929246</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.188343190788696</v>
       </c>
     </row>
@@ -4164,72 +4134,66 @@
         <v>2.128613519069155e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1638169369759541</v>
+        <v>7.586591235575354e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7156565815840534</v>
+        <v>3.538739417971639e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.586591235575354e-07</v>
+        <v>0.01877412427000119</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.538739417971639e-06</v>
+        <v>0.1615812068602284</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01877412427000119</v>
+        <v>0.02645294163970448</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1615812068602284</v>
+        <v>1.544130784195869</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02645294163970448</v>
+        <v>1.476577172249562</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.449020324823825</v>
+        <v>4.327559281011549</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.476577172249562</v>
+        <v>1.052261324247278e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.327559281011549</v>
+        <v>23322016.37081955</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.052261324247278e-14</v>
+        <v>4.526237088972465e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>23322016.37081955</v>
+        <v>5.723422414322669</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.526237088972465e-06</v>
+        <v>0.0001316022443351944</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.723422414322669</v>
+        <v>11.94696130092867</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001316022443351944</v>
+        <v>1.142974001781631</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.94696130092867</v>
+        <v>0.01878357311098947</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.142974001781631</v>
+        <v>2.954825889147488</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01878357311098947</v>
+        <v>0.9437286304281677</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.954825889147488</v>
+        <v>1.848490021731741</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9437286304281677</v>
+        <v>23</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.848490021731741</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1968257533338278</v>
       </c>
     </row>
@@ -4244,72 +4208,66 @@
         <v>2.129681576044197e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1171339115853745</v>
+        <v>7.586591235575354e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7293593299490917</v>
+        <v>3.542363544967123e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.586591235575354e-07</v>
+        <v>0.01564484380075933</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.542363544967123e-06</v>
+        <v>0.1583547404546537</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01564484380075933</v>
+        <v>0.0253178659724656</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1583547404546537</v>
+        <v>1.534110486663418</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0253178659724656</v>
+        <v>1.46220803740686</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.439485559003775</v>
+        <v>4.358767501002497</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.46220803740686</v>
+        <v>1.037247153093127e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.358767501002497</v>
+        <v>24369322.79133457</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.037247153093127e-14</v>
+        <v>4.342966356456684e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>24369322.79133457</v>
+        <v>6.159836326587915</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.342966356456684e-06</v>
+        <v>0.0001250466723841716</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.159836326587915</v>
+        <v>11.29020729916224</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001250466723841716</v>
+        <v>1.220848754716612</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.29020729916224</v>
+        <v>0.01593954687916713</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.220848754716612</v>
+        <v>3.122580538288464</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01593954687916713</v>
+        <v>0.9427069880553235</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.122580538288464</v>
+        <v>1.824105880503428</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9427069880553235</v>
+        <v>26</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.824105880503428</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1996251369614297</v>
       </c>
     </row>
@@ -4324,72 +4282,66 @@
         <v>2.134757683246998e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.07620923740103881</v>
+        <v>7.586591235575354e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7544508446536229</v>
+        <v>3.545512394711107e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.586591235575354e-07</v>
+        <v>0.01406522732138499</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.545512394711107e-06</v>
+        <v>0.1568867493565012</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01406522732138499</v>
+        <v>0.02480957053392379</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1568867493565012</v>
+        <v>1.524652998945972</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02480957053392379</v>
+        <v>1.44339098718465</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.430310393249137</v>
+        <v>4.508907899039776</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.44339098718465</v>
+        <v>9.693194588175633e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.508907899039776</v>
+        <v>26710225.72255028</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.693194588175633e-15</v>
+        <v>3.973635375302453e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>26710225.72255028</v>
+        <v>6.915475507184386</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.973635375302453e-06</v>
+        <v>0.0001189035270829954</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.915475507184386</v>
+        <v>8.236008903916698</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001189035270829954</v>
+        <v>1.578152125143266</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.236008903916698</v>
+        <v>0.008065445341454293</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.578152125143266</v>
+        <v>3.339437552822252</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008065445341454293</v>
+        <v>0.9416711065912595</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.339437552822252</v>
+        <v>1.851605092878976</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9416711065912595</v>
+        <v>27</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.851605092878976</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1943260700808109</v>
       </c>
     </row>
@@ -4404,72 +4356,66 @@
         <v>2.142095009137098e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.04037275235446935</v>
+        <v>7.586591235575354e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7850518884423985</v>
+        <v>3.548365034494987e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.586591235575354e-07</v>
+        <v>0.01258375535791082</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.548365034494987e-06</v>
+        <v>0.1555623186682419</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01258375535791082</v>
+        <v>0.02435648984844769</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1555623186682419</v>
+        <v>1.512807455563163</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02435648984844769</v>
+        <v>1.412876920788473</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.41937655280769</v>
+        <v>4.922814867558849</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.412876920788473</v>
+        <v>8.131724428777953e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.922814867558849</v>
+        <v>31832710.82057659</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8.131724428777953e-15</v>
+        <v>3.317866720076366e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>31832710.82057659</v>
+        <v>8.240051018374174</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.317866720076366e-06</v>
+        <v>0.000114656145355083</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8.240051018374174</v>
+        <v>6.981817438160369</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000114656145355083</v>
+        <v>1.587178750776383</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>6.981817438160369</v>
+        <v>0.005589002634012666</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.587178750776383</v>
+        <v>3.359045912544663</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005589002634012666</v>
+        <v>0.939241492121469</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.359045912544663</v>
+        <v>1.860324934502214</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.939241492121469</v>
+        <v>28</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.860324934502214</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2008754890570621</v>
       </c>
     </row>
@@ -4484,72 +4430,66 @@
         <v>2.150740798210986e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.0104967035197654</v>
+        <v>7.586591235575354e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8177458254467664</v>
+        <v>3.550881126172884e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.586591235575354e-07</v>
+        <v>0.01083650425306449</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.550881126172884e-06</v>
+        <v>0.1538818827431256</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01083650425306449</v>
+        <v>0.02379475713525197</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1538818827431256</v>
+        <v>1.51226496055572</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02379475713525197</v>
+        <v>1.450810205177181</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.419107751174036</v>
+        <v>4.951161491184752</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.450810205177181</v>
+        <v>5.66674576288937e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.951161491184752</v>
+        <v>46136504.77750167</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.66674576288937e-15</v>
+        <v>2.282511837605349e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>46136504.77750167</v>
+        <v>12.06210510988468</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.282511837605349e-06</v>
+        <v>0.0001180971660321549</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>12.06210510988468</v>
+        <v>8.446123649992133</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001180971660321549</v>
+        <v>1.337567372526105</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.446123649992133</v>
+        <v>0.008424698089586439</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.337567372526105</v>
+        <v>3.208682776540766</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008424698089586439</v>
+        <v>0.9380293464466944</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.208682776540766</v>
+        <v>1.83397997051345</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9380293464466944</v>
+        <v>29</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.83397997051345</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2163498307485102</v>
       </c>
     </row>
@@ -4926,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.484112872146001</v>
+        <v>1.49978667065801</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.239274722495959</v>
@@ -5015,7 +4955,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.496251283606319</v>
+        <v>1.509671835843544</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.176433257311238</v>
@@ -5104,7 +5044,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.52048797105327</v>
+        <v>1.536125117272694</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.109364539215825</v>
@@ -5193,7 +5133,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.531723772651813</v>
+        <v>1.54988766839967</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.188085953438248</v>
@@ -5282,7 +5222,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.563838064010394</v>
+        <v>1.580485304702316</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.064313525628246</v>
@@ -5371,7 +5311,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.610298070150279</v>
+        <v>1.627186025117568</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.199169100979087</v>
@@ -5460,7 +5400,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.639531633380323</v>
+        <v>1.650927196932112</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.465164444473624</v>
@@ -5549,7 +5489,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.576342040203183</v>
+        <v>1.590236322272922</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.378964039917851</v>
@@ -5638,7 +5578,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.521979590575864</v>
+        <v>1.533229713281228</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.338777072133418</v>
@@ -5727,7 +5667,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.490818394089455</v>
+        <v>1.514654220899535</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.383619513835113</v>
@@ -5816,7 +5756,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.446861205686423</v>
+        <v>1.476579904907467</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.262405040942446</v>
@@ -5905,7 +5845,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.405481146063773</v>
+        <v>1.434350676846995</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.206855794130289</v>
@@ -5994,7 +5934,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365686172848713</v>
+        <v>1.404129375304357</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.127863687209113</v>
@@ -6083,7 +6023,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.380741018698411</v>
+        <v>1.41748414338273</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.119717360570573</v>
@@ -6172,7 +6112,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.382690306926836</v>
+        <v>1.418450007962949</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.122465586830161</v>
@@ -6261,7 +6201,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.3822177083795</v>
+        <v>1.41764518261394</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.077659817884675</v>
@@ -6350,7 +6290,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.377489931105903</v>
+        <v>1.41244473164165</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.09266083137365</v>
@@ -6439,7 +6379,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.36759204664059</v>
+        <v>1.401836033601808</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.131414048355194</v>
@@ -6528,7 +6468,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.366938548983027</v>
+        <v>1.398140271953628</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.126197742649381</v>
@@ -6617,7 +6557,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.377190112112404</v>
+        <v>1.41141725997075</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.14355329895433</v>
@@ -6706,7 +6646,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.39264957364345</v>
+        <v>1.426667866269222</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.086313801427815</v>
@@ -6795,7 +6735,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.395865749191101</v>
+        <v>1.430647337815216</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.110598004750474</v>
@@ -6884,7 +6824,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.415090753224325</v>
+        <v>1.451874570102897</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.099668226511969</v>
@@ -6973,7 +6913,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.450392498281762</v>
+        <v>1.487709933481703</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.967714156252685</v>
@@ -7062,7 +7002,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.470284639282208</v>
+        <v>1.499399958806286</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.147788765481848</v>
@@ -7151,7 +7091,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.523601800576984</v>
+        <v>1.545255091668654</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.998892315099938</v>
@@ -7240,7 +7180,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.634460219916472</v>
+        <v>1.642465742877728</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.843468283403188</v>
@@ -7329,7 +7269,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.726369322851299</v>
+        <v>1.713430397086284</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.474088671830899</v>
@@ -7418,7 +7358,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.695551033633582</v>
+        <v>1.679569102521824</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.43343655382078</v>
@@ -7507,7 +7447,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.683741598791642</v>
+        <v>1.669808680697514</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.503185733515767</v>
@@ -7596,7 +7536,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.691208259397315</v>
+        <v>1.676044958318433</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.390687394650085</v>
@@ -7685,7 +7625,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.64995314416799</v>
+        <v>1.640875313525209</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.45997444153944</v>
@@ -7774,7 +7714,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.681269992267038</v>
+        <v>1.666172989689812</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.395837740802581</v>
@@ -7863,7 +7803,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.648460246367513</v>
+        <v>1.636188365893556</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.433622078794559</v>
@@ -7952,7 +7892,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592177741870467</v>
+        <v>1.588246668557823</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.390384840394155</v>
@@ -8041,7 +7981,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.551908744224486</v>
+        <v>1.554678363266708</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.38398371742114</v>
@@ -8130,7 +8070,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.563594854279808</v>
+        <v>1.566764447352927</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.426285840485574</v>
@@ -8219,7 +8159,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.555702071492678</v>
+        <v>1.557698518348831</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.371953293596277</v>
@@ -8308,7 +8248,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.550902752503279</v>
+        <v>1.553040069775155</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.383351854515278</v>
@@ -8397,7 +8337,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.550477024130657</v>
+        <v>1.549183514450523</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.263313712301665</v>
@@ -8486,7 +8426,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.544791106994973</v>
+        <v>1.543821309329548</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.28269076196002</v>
@@ -8575,7 +8515,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.509588465151048</v>
+        <v>1.51141095579007</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.330388416541737</v>
@@ -8664,7 +8604,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.510931376819676</v>
+        <v>1.513894649519564</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.252743199848593</v>
@@ -8753,7 +8693,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.532341274597519</v>
+        <v>1.538688273465643</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.21020863342735</v>
@@ -8842,7 +8782,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.535240285877693</v>
+        <v>1.546803346093148</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.289634442205274</v>
@@ -8931,7 +8871,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.520438775965369</v>
+        <v>1.534056789911292</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.376779364006544</v>
@@ -9020,7 +8960,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.555168400021301</v>
+        <v>1.571840873834031</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.285412113267042</v>
@@ -9109,7 +9049,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.579175989023245</v>
+        <v>1.600783585946824</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.338696486182636</v>
@@ -9198,7 +9138,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602289792949087</v>
+        <v>1.626838191776197</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.381533338506139</v>
@@ -9287,7 +9227,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.642751891205573</v>
+        <v>1.659441899421038</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.230816500093522</v>
@@ -9376,7 +9316,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.666232545765486</v>
+        <v>1.685121055513083</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.37643047147302</v>
@@ -9465,7 +9405,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.666249741155857</v>
+        <v>1.688726603571774</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.408963365115933</v>
@@ -9554,7 +9494,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.660518249132791</v>
+        <v>1.685886189668786</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.433910444554148</v>
@@ -9840,7 +9780,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.449656670993495</v>
+        <v>1.400104560383432</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.739728005546956</v>
@@ -9929,7 +9869,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.454256996238284</v>
+        <v>1.401081514470097</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.666838277566824</v>
@@ -10018,7 +9958,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.451164645201442</v>
+        <v>1.407382223135703</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.607885420488746</v>
@@ -10107,7 +10047,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.458265448624913</v>
+        <v>1.422417262787712</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.611929709727181</v>
@@ -10196,7 +10136,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.48206185101119</v>
+        <v>1.439599383335465</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.781182840422811</v>
@@ -10285,7 +10225,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.51302151869763</v>
+        <v>1.469230780066724</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.80743068689896</v>
@@ -10374,7 +10314,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.523912794547931</v>
+        <v>1.474610211629708</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.607417168618004</v>
@@ -10463,7 +10403,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543330004197322</v>
+        <v>1.493521904795571</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.835864144058982</v>
@@ -10552,7 +10492,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.554202391472528</v>
+        <v>1.508275307676008</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.579227623208598</v>
@@ -10641,7 +10581,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.588607291219032</v>
+        <v>1.549797920223305</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.269746769848523</v>
@@ -10730,7 +10670,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.598666040576838</v>
+        <v>1.561986060582639</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.451918839196722</v>
@@ -10819,7 +10759,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.594597195182991</v>
+        <v>1.555470256146352</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.531419601719239</v>
@@ -10908,7 +10848,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.572816093147204</v>
+        <v>1.545698023004251</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.562594659161913</v>
@@ -10997,7 +10937,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.570551629817926</v>
+        <v>1.54267474832987</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.492057059378479</v>
@@ -11086,7 +11026,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.57834798729796</v>
+        <v>1.549564639670142</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.479719224981152</v>
@@ -11175,7 +11115,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.567894092325231</v>
+        <v>1.53837232696384</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.518675089401073</v>
@@ -11264,7 +11204,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57014277520215</v>
+        <v>1.538169572110388</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.435783188390928</v>
@@ -11353,7 +11293,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588534332722184</v>
+        <v>1.545660847850035</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.464418198163548</v>
@@ -11442,7 +11382,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.585625804383155</v>
+        <v>1.543514543187362</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.500407968757837</v>
@@ -11531,7 +11471,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.584737078369361</v>
+        <v>1.54230736949424</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.41971961890853</v>
@@ -11620,7 +11560,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.582933342054409</v>
+        <v>1.542397171264815</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.395235010823316</v>
@@ -11709,7 +11649,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.576030979024826</v>
+        <v>1.536984010375693</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.367326155035431</v>
@@ -11798,7 +11738,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.57027432841122</v>
+        <v>1.526988911202698</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.450414522405132</v>
@@ -11887,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.559452386219272</v>
+        <v>1.517253964591726</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.191015185242797</v>
@@ -11976,7 +11916,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.538828676013932</v>
+        <v>1.47272298069222</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.38515029143617</v>
@@ -12065,7 +12005,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.530268511361413</v>
+        <v>1.471865891325354</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.367984638194469</v>
@@ -12154,7 +12094,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.554571169723036</v>
+        <v>1.497820825464183</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.096443817703697</v>
@@ -12243,7 +12183,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.601814712840398</v>
+        <v>1.528598549521236</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.56570683361883</v>
@@ -12332,7 +12272,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.606245842907837</v>
+        <v>1.529708496737417</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.707313919692974</v>
@@ -12421,7 +12361,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.582865602211607</v>
+        <v>1.507464989981257</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.406643540550678</v>
@@ -12510,7 +12450,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.590195415031672</v>
+        <v>1.518189605796863</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.311504785595676</v>
@@ -12599,7 +12539,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593315665264124</v>
+        <v>1.523331201042483</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.358916919675479</v>
@@ -12688,7 +12628,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.597782240134984</v>
+        <v>1.532658975153764</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.404293091515082</v>
@@ -12777,7 +12717,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600019794180409</v>
+        <v>1.531516001972349</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.375906875043681</v>
@@ -12866,7 +12806,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.583190839582034</v>
+        <v>1.507118096603338</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.456175191733395</v>
@@ -12955,7 +12895,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.570964985854239</v>
+        <v>1.494747034851527</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.356630901078831</v>
@@ -13044,7 +12984,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.570866444926154</v>
+        <v>1.494533975573727</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.394338425357054</v>
@@ -13133,7 +13073,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.546693016632764</v>
+        <v>1.485144925330933</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.444695333253166</v>
@@ -13222,7 +13162,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.556685022821891</v>
+        <v>1.492212966787175</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.477281375394948</v>
@@ -13311,7 +13251,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.5591900971172</v>
+        <v>1.497342474470132</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.343268620803598</v>
@@ -13400,7 +13340,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.564295856915974</v>
+        <v>1.500605620342314</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.507926023152429</v>
@@ -13489,7 +13429,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562720072372362</v>
+        <v>1.501961929095046</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.465930892402803</v>
@@ -13578,7 +13518,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.553159090790909</v>
+        <v>1.492683551620567</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.440636441597091</v>
@@ -13667,7 +13607,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553245358832019</v>
+        <v>1.495609368565527</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.418215454951098</v>
@@ -13756,7 +13696,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600314002055625</v>
+        <v>1.533200329065012</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.838197552774836</v>
@@ -13845,7 +13785,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.581242471604136</v>
+        <v>1.511812717736462</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.03796837242342</v>
@@ -13934,7 +13874,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.496137313364294</v>
+        <v>1.448421504532161</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.021664152998611</v>
@@ -14023,7 +13963,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.512842286471564</v>
+        <v>1.481283796331041</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.101155553345835</v>
@@ -14112,7 +14052,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.496239521765179</v>
+        <v>1.469575484489846</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.195620019270157</v>
@@ -14201,7 +14141,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.485428368029776</v>
+        <v>1.464387497594961</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.184135941824291</v>
@@ -14290,7 +14230,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.489012522124449</v>
+        <v>1.467558867799986</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.174602224256556</v>
@@ -14379,7 +14319,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.492028475065555</v>
+        <v>1.465844386925195</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.198297486097446</v>
@@ -14468,7 +14408,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.497467694518151</v>
+        <v>1.469522048653075</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.152930433122821</v>
@@ -14754,7 +14694,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.72281453478493</v>
+        <v>1.700035060428578</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.233871036110856</v>
@@ -14843,7 +14783,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.723066723061571</v>
+        <v>1.690613415107221</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.927465721576089</v>
@@ -14932,7 +14872,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.713547024306987</v>
+        <v>1.678414157898472</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.87978816951496</v>
@@ -15021,7 +14961,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.725609018082392</v>
+        <v>1.691322447074015</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.137526307983285</v>
@@ -15110,7 +15050,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.752627218630675</v>
+        <v>1.705599172090219</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.235196275888589</v>
@@ -15199,7 +15139,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.756292363468468</v>
+        <v>1.703145096617003</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.464416054658269</v>
@@ -15288,7 +15228,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.757188108969856</v>
+        <v>1.700958831678268</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.38634175311305</v>
@@ -15377,7 +15317,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.749339077954607</v>
+        <v>1.689295171484161</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.475167427249958</v>
@@ -15466,7 +15406,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.749563571396547</v>
+        <v>1.687293012780252</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.735255075488819</v>
@@ -15555,7 +15495,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.763533855835342</v>
+        <v>1.711669037790036</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.182318253406642</v>
@@ -15644,7 +15584,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.773294468277274</v>
+        <v>1.71743791467808</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.212515931524802</v>
@@ -15733,7 +15673,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.767253221479199</v>
+        <v>1.69920532218849</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.09367088068135</v>
@@ -15822,7 +15762,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.760850189213555</v>
+        <v>1.691957621965408</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.256534838755495</v>
@@ -15911,7 +15851,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.771907126727798</v>
+        <v>1.700612729218061</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.190405136630046</v>
@@ -16000,7 +15940,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.771147497978595</v>
+        <v>1.690058896109673</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.209236248355282</v>
@@ -16089,7 +16029,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.766882905789837</v>
+        <v>1.685137087890903</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.191543639110908</v>
@@ -16178,7 +16118,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.766931178753087</v>
+        <v>1.68749004258741</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.057686135691616</v>
@@ -16267,7 +16207,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.760413214611415</v>
+        <v>1.677734717369397</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.239863493310335</v>
@@ -16356,7 +16296,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.756269475343573</v>
+        <v>1.672118062970853</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.143013331041999</v>
@@ -16445,7 +16385,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.755373312676813</v>
+        <v>1.677431131293778</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.16594579742702</v>
@@ -16534,7 +16474,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.759757476303277</v>
+        <v>1.680866131780442</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.988243658115712</v>
@@ -16623,7 +16563,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.758463509647357</v>
+        <v>1.682837067648259</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.007156077282084</v>
@@ -16712,7 +16652,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.761563689321695</v>
+        <v>1.685023987115116</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.034835049057587</v>
@@ -16801,7 +16741,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.76409435179003</v>
+        <v>1.688140330479597</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.886763433689191</v>
@@ -16890,7 +16830,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.736904389073057</v>
+        <v>1.643978442526598</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.005292342786344</v>
@@ -16979,7 +16919,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.735084161391984</v>
+        <v>1.645673743849488</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.86570592388005</v>
@@ -17068,7 +17008,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.749821100266649</v>
+        <v>1.648541032988551</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.763863124908837</v>
@@ -17157,7 +17097,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.752493083554735</v>
+        <v>1.637532536477427</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.744150382807142</v>
@@ -17246,7 +17186,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.738968806653796</v>
+        <v>1.619560853348919</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.881190171188662</v>
@@ -17335,7 +17275,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.73953653680423</v>
+        <v>1.61481473973739</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.735391661607062</v>
@@ -17424,7 +17364,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.742205561216834</v>
+        <v>1.612340838551442</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.950656821220981</v>
@@ -17513,7 +17453,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.736006052588814</v>
+        <v>1.606907226867571</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.874745064794582</v>
@@ -17602,7 +17542,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.741674668476417</v>
+        <v>1.612005219503597</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.319689930339909</v>
@@ -17691,7 +17631,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.741679384425059</v>
+        <v>1.60630649782723</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.781318390080541</v>
@@ -17780,7 +17720,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.733445213943964</v>
+        <v>1.583953720625415</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.726315155682911</v>
@@ -17869,7 +17809,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.725692092580693</v>
+        <v>1.572174967629199</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.109326490690762</v>
@@ -17958,7 +17898,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.723730448602408</v>
+        <v>1.566921289690847</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.83925526815496</v>
@@ -18047,7 +17987,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.72117346676203</v>
+        <v>1.569323566197904</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.387090439304051</v>
@@ -18136,7 +18076,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723852287098196</v>
+        <v>1.570729154412478</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.819755931955821</v>
@@ -18225,7 +18165,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.724860101322421</v>
+        <v>1.572667172568465</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.936816040580558</v>
@@ -18314,7 +18254,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.726851837414807</v>
+        <v>1.568150230867598</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.445752145220243</v>
@@ -18403,7 +18343,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.735056161349863</v>
+        <v>1.590269457308048</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.625856218447788</v>
@@ -18492,7 +18432,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.734195704634524</v>
+        <v>1.601341811617211</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.177470638303056</v>
@@ -18581,7 +18521,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.732511614761103</v>
+        <v>1.600704621788077</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.262770881409124</v>
@@ -18670,7 +18610,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.731924930542347</v>
+        <v>1.610215960703723</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.223805617240855</v>
@@ -18759,7 +18699,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.688224692711738</v>
+        <v>1.576100571432028</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.095334661601042</v>
@@ -18848,7 +18788,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.635088066435396</v>
+        <v>1.555950676158067</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.173788477497701</v>
@@ -18937,7 +18877,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.682218496040861</v>
+        <v>1.618676906170142</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.242285003210549</v>
@@ -19026,7 +18966,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.67311293903886</v>
+        <v>1.625507577480622</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.328139374404676</v>
@@ -19115,7 +19055,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638398791341779</v>
+        <v>1.601820168272226</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.304489576934945</v>
@@ -19204,7 +19144,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.642779354464823</v>
+        <v>1.609971100463365</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.319935289982197</v>
@@ -19293,7 +19233,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.640235076166382</v>
+        <v>1.606562715316911</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.338407866861865</v>
@@ -19382,7 +19322,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.639740935349683</v>
+        <v>1.60473111918545</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.345198340167106</v>
@@ -19668,7 +19608,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.686219565599865</v>
+        <v>1.67874458566601</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.999299594484914</v>
@@ -19757,7 +19697,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.697134396389394</v>
+        <v>1.686379555042627</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.939604610475208</v>
@@ -19846,7 +19786,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.695199517085813</v>
+        <v>1.686191815244042</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.923372889366681</v>
@@ -19935,7 +19875,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.70368509535244</v>
+        <v>1.697242732431025</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.919328656067813</v>
@@ -20024,7 +19964,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.763228481947728</v>
+        <v>1.74521656102597</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.068167973119668</v>
@@ -20113,7 +20053,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.785251674396735</v>
+        <v>1.759942280762692</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.687199344621579</v>
@@ -20202,7 +20142,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.797091853300466</v>
+        <v>1.764264067818196</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.309401488325264</v>
@@ -20291,7 +20231,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.797163896827159</v>
+        <v>1.762470167033674</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.526311215765157</v>
@@ -20380,7 +20320,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.801767289604126</v>
+        <v>1.762739095495282</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.346375912448838</v>
@@ -20469,7 +20409,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.812786448519798</v>
+        <v>1.779556836259994</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.431204650112256</v>
@@ -20558,7 +20498,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.809985671789773</v>
+        <v>1.781552725722499</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.454823911749096</v>
@@ -20647,7 +20587,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.804786572136608</v>
+        <v>1.783217579945083</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.511749447540382</v>
@@ -20736,7 +20676,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.786101395879786</v>
+        <v>1.774958295880493</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.420917022183203</v>
@@ -20825,7 +20765,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.796406544740838</v>
+        <v>1.776661331924391</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.479574382599038</v>
@@ -20914,7 +20854,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.797349348513307</v>
+        <v>1.775776924388885</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.499278930815371</v>
@@ -21003,7 +20943,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.792062010005873</v>
+        <v>1.761742916782074</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.494631013666909</v>
@@ -21092,7 +21032,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.790178192822119</v>
+        <v>1.754092026801903</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.480820864791221</v>
@@ -21181,7 +21121,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.791668200229122</v>
+        <v>1.755054966748144</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.51315649286823</v>
@@ -21270,7 +21210,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.791916309971729</v>
+        <v>1.751845519090528</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.431644971079308</v>
@@ -21359,7 +21299,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.792065764655832</v>
+        <v>1.753936259882417</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.394570770154332</v>
@@ -21448,7 +21388,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.794496449365718</v>
+        <v>1.755857106841864</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.485713473124428</v>
@@ -21537,7 +21477,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.791771964076731</v>
+        <v>1.754975300479689</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.419829783539225</v>
@@ -21626,7 +21566,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.795544753571628</v>
+        <v>1.756292075352317</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.397450590098877</v>
@@ -21715,7 +21655,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.813516278901207</v>
+        <v>1.781890243013939</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.091626413725621</v>
@@ -21804,7 +21744,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.785766244821204</v>
+        <v>1.733041703198992</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.734508496562217</v>
@@ -21893,7 +21833,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.780522776693001</v>
+        <v>1.726082789366574</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.695464858980811</v>
@@ -21982,7 +21922,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.792671141248185</v>
+        <v>1.721856450649969</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.408702339253621</v>
@@ -22071,7 +22011,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.820487090630985</v>
+        <v>1.728997826367301</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.289963533852552</v>
@@ -22160,7 +22100,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.812449663400698</v>
+        <v>1.72918545380361</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.361652800375383</v>
@@ -22249,7 +22189,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.810711220479453</v>
+        <v>1.726879535572924</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.862991168160048</v>
@@ -22338,7 +22278,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.809640473455846</v>
+        <v>1.734967115813868</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.981586954841376</v>
@@ -22427,7 +22367,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.79741859295132</v>
+        <v>1.734916706590524</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.920381802046437</v>
@@ -22516,7 +22456,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.794084028450018</v>
+        <v>1.72234039322519</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.135720305644121</v>
@@ -22605,7 +22545,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.795628868573215</v>
+        <v>1.718260257731457</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.493068039505222</v>
@@ -22694,7 +22634,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.793686053537942</v>
+        <v>1.709292568129812</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.728908027518461</v>
@@ -22783,7 +22723,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.791479241741359</v>
+        <v>1.704716292560091</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.853024464931105</v>
@@ -22872,7 +22812,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.792904228091543</v>
+        <v>1.70655305295195</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.194806558508651</v>
@@ -22961,7 +22901,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.786408072722763</v>
+        <v>1.70994675300585</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.200908190047188</v>
@@ -23050,7 +22990,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.782963915581725</v>
+        <v>1.703735442257267</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.323452756263532</v>
@@ -23139,7 +23079,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.783684245912265</v>
+        <v>1.701538256459488</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.216868603776867</v>
@@ -23228,7 +23168,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.783511745069132</v>
+        <v>1.694098728559079</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.185920523997354</v>
@@ -23317,7 +23257,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.784407035866855</v>
+        <v>1.697188231376065</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.886653631477595</v>
@@ -23406,7 +23346,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.787201096959913</v>
+        <v>1.70205739810429</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.837337101525803</v>
@@ -23495,7 +23435,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.79384481158038</v>
+        <v>1.707708301120485</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.945077529792032</v>
@@ -23584,7 +23524,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.801842478443869</v>
+        <v>1.717134872672446</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.897075871871879</v>
@@ -23673,7 +23613,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.769085171122063</v>
+        <v>1.683490343774696</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.143333418901427</v>
@@ -23762,7 +23702,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.753599830769687</v>
+        <v>1.705554035428902</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.262924492742163</v>
@@ -23851,7 +23791,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.776115564256556</v>
+        <v>1.752410667639714</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.358293575039569</v>
@@ -23940,7 +23880,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.756980508928369</v>
+        <v>1.746386719361117</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.372690723450473</v>
@@ -24029,7 +23969,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.761181694478591</v>
+        <v>1.756706080252296</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.36333361746803</v>
@@ -24118,7 +24058,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.762383164261357</v>
+        <v>1.760912776526485</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.357791058330091</v>
@@ -24207,7 +24147,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.761793984592022</v>
+        <v>1.759349193148567</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.417742698718231</v>
@@ -24296,7 +24236,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.769063704798445</v>
+        <v>1.766019684218726</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.399052763893261</v>
@@ -24582,7 +24522,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.464895655454392</v>
+        <v>1.464508492951868</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.781678146677039</v>
@@ -24671,7 +24611,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.470780273282164</v>
+        <v>1.4629136816659</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.723324755643867</v>
@@ -24760,7 +24700,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.477310730778083</v>
+        <v>1.466740846579319</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.759307286174183</v>
@@ -24849,7 +24789,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.483500504476009</v>
+        <v>1.474237805603504</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.712486479773839</v>
@@ -24938,7 +24878,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.529543624485336</v>
+        <v>1.519585019781066</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.639826159620239</v>
@@ -25027,7 +24967,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562509092886498</v>
+        <v>1.54943324526413</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.827924915501005</v>
@@ -25116,7 +25056,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573176725841108</v>
+        <v>1.564782747164316</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.744387917440746</v>
@@ -25205,7 +25145,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.584169033308935</v>
+        <v>1.573697787182291</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.789435531941646</v>
@@ -25294,7 +25234,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.635820594570726</v>
+        <v>1.630373125588326</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.24708849364485</v>
@@ -25383,7 +25323,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.703045658634952</v>
+        <v>1.700381086435313</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.123733990648893</v>
@@ -25472,7 +25412,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.704167237779207</v>
+        <v>1.703643419134273</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.024171878258923</v>
@@ -25561,7 +25501,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.646711180854109</v>
+        <v>1.626127087363222</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.910719836839487</v>
@@ -25650,7 +25590,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.568611230527908</v>
+        <v>1.576684580125002</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.94774254723171</v>
@@ -25739,7 +25679,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.574887588276942</v>
+        <v>1.582428605384009</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.911253553363772</v>
@@ -25828,7 +25768,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.584725247811112</v>
+        <v>1.590624002912246</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.92935715114659</v>
@@ -25917,7 +25857,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.579799644438446</v>
+        <v>1.585264808891898</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.92930250564507</v>
@@ -26006,7 +25946,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57682646143532</v>
+        <v>1.584060980955853</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.907950206489949</v>
@@ -26095,7 +26035,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.584496016049089</v>
+        <v>1.587743376634973</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.914222476838249</v>
@@ -26184,7 +26124,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.581330680486826</v>
+        <v>1.583212088876939</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.915541067641026</v>
@@ -26273,7 +26213,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580466881934188</v>
+        <v>1.58341675687358</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.910540236032937</v>
@@ -26362,7 +26302,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.578064464076687</v>
+        <v>1.576710581854119</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.916004625678244</v>
@@ -26451,7 +26391,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571957980635442</v>
+        <v>1.568450898614854</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.894562228169125</v>
@@ -26540,7 +26480,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576218607023091</v>
+        <v>1.572551255912628</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.89844869108134</v>
@@ -26629,7 +26569,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.556809054559889</v>
+        <v>1.560471400757767</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.858821646000381</v>
@@ -26718,7 +26658,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.441976494987064</v>
+        <v>1.41787148333742</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.667333654149884</v>
@@ -26807,7 +26747,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.439538101782558</v>
+        <v>1.413444977321765</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.65904144797503</v>
@@ -26896,7 +26836,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.539655248440773</v>
+        <v>1.505373909109716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.64438585055024</v>
@@ -26985,7 +26925,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.653340714092924</v>
+        <v>1.594711820720559</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.89297302345648</v>
@@ -27074,7 +27014,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.647928949776084</v>
+        <v>1.591370518530703</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.011642432931994</v>
@@ -27163,7 +27103,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.627157542348389</v>
+        <v>1.571318871255918</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.704126365432874</v>
@@ -27252,7 +27192,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63366701175851</v>
+        <v>1.583114039805458</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.787710484505214</v>
@@ -27341,7 +27281,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.626565575729283</v>
+        <v>1.579764105214416</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.709945095916164</v>
@@ -27430,7 +27370,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.628139756542456</v>
+        <v>1.586411768773591</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.721270935263708</v>
@@ -27519,7 +27459,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.628219130391611</v>
+        <v>1.587106958345396</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.582091002508654</v>
@@ -27608,7 +27548,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.621213297221887</v>
+        <v>1.575841165465012</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.557997448192737</v>
@@ -27697,7 +27637,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.614648553372544</v>
+        <v>1.570364636334475</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.674280869813285</v>
@@ -27786,7 +27726,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.614392708928793</v>
+        <v>1.570622744768757</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.593064930904421</v>
@@ -27875,7 +27815,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.598212910810627</v>
+        <v>1.562965003805855</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.736764198048107</v>
@@ -27964,7 +27904,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.600266061040848</v>
+        <v>1.565119576185448</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.703678605585742</v>
@@ -28053,7 +27993,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.604965492617513</v>
+        <v>1.570589181711986</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.547233810798815</v>
@@ -28142,7 +28082,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.604387665934273</v>
+        <v>1.564832871367206</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.826494689221326</v>
@@ -28231,7 +28171,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.60534900583269</v>
+        <v>1.571461234311523</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.882828262961285</v>
@@ -28320,7 +28260,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.606112721560858</v>
+        <v>1.573060869743646</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.82490613729573</v>
@@ -28409,7 +28349,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.60598738364704</v>
+        <v>1.574288007649211</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.746280379252512</v>
@@ -28498,7 +28438,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.642418473000586</v>
+        <v>1.604195316899829</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.217355751845404</v>
@@ -28587,7 +28527,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.632189841987612</v>
+        <v>1.593083377600177</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.709570589265328</v>
@@ -28676,7 +28616,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.623204205596009</v>
+        <v>1.58654387422001</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.782831476036693</v>
@@ -28765,7 +28705,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648874566521534</v>
+        <v>1.641951708274798</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.985492738075652</v>
@@ -28854,7 +28794,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.663846191507298</v>
+        <v>1.661126480492874</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.07822267803521</v>
@@ -28943,7 +28883,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.650374323385359</v>
+        <v>1.650991736515852</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.025855371765014</v>
@@ -29032,7 +28972,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.654743707572183</v>
+        <v>1.659824050978889</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.05066798009043</v>
@@ -29121,7 +29061,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.656477582379802</v>
+        <v>1.657682727878538</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.047364035112844</v>
@@ -29210,7 +29150,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.658379243674782</v>
+        <v>1.658803468520917</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.074162493777416</v>
@@ -29496,7 +29436,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.613942548967672</v>
+        <v>1.643560030075881</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.657116020544273</v>
@@ -29585,7 +29525,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.62454183037097</v>
+        <v>1.655613769480277</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.622429699007112</v>
@@ -29674,7 +29614,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.647275751897767</v>
+        <v>1.680166692074791</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.620915387334595</v>
@@ -29763,7 +29703,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.655569040372362</v>
+        <v>1.697542534932935</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.47874487757806</v>
@@ -29852,7 +29792,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.701547079321782</v>
+        <v>1.743808067501748</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.592298958039787</v>
@@ -29941,7 +29881,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.749696286812652</v>
+        <v>1.786258437054828</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.760369908256046</v>
@@ -30030,7 +29970,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.766450671744196</v>
+        <v>1.795637029917651</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.948427198524783</v>
@@ -30119,7 +30059,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.723583869002828</v>
+        <v>1.755841112495528</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.052373557530265</v>
@@ -30208,7 +30148,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.68287316056805</v>
+        <v>1.717800264347477</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.807204071012265</v>
@@ -30297,7 +30237,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.663180224738812</v>
+        <v>1.705796096509147</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.804999230460488</v>
@@ -30386,7 +30326,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.63868226792644</v>
+        <v>1.684801025742395</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.963260845986605</v>
@@ -30475,7 +30415,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.623329653783426</v>
+        <v>1.654262780893542</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.228987319467963</v>
@@ -30564,7 +30504,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.529378158630536</v>
+        <v>1.570165965846089</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.106107240720164</v>
@@ -30653,7 +30593,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544282083205775</v>
+        <v>1.581027373780301</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.096351392552359</v>
@@ -30742,7 +30682,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.539728482772419</v>
+        <v>1.573039714295265</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.094025136450165</v>
@@ -30831,7 +30771,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531248647798763</v>
+        <v>1.561263803821503</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.087688428713614</v>
@@ -30920,7 +30860,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.535462083856471</v>
+        <v>1.563110496979693</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.097725263788108</v>
@@ -31009,7 +30949,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.520082092645728</v>
+        <v>1.547568463626167</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.051064706306105</v>
@@ -31098,7 +31038,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.517934320842763</v>
+        <v>1.544915163633865</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.050599215962555</v>
@@ -31187,7 +31127,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.518024076020313</v>
+        <v>1.545396276152591</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.072808079368029</v>
@@ -31276,7 +31216,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.520356754948661</v>
+        <v>1.545947012511166</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.049144569091977</v>
@@ -31365,7 +31305,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.515873099469694</v>
+        <v>1.543080106115766</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.021282966106573</v>
@@ -31454,7 +31394,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.532267477839123</v>
+        <v>1.560235215382383</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.063130751422298</v>
@@ -31543,7 +31483,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.560290972359632</v>
+        <v>1.587804629754213</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.121091223701748</v>
@@ -31632,7 +31572,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.564118168032259</v>
+        <v>1.585089576870647</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.002195490484899</v>
@@ -31721,7 +31661,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.57898981395217</v>
+        <v>1.597921456189205</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.942246236096963</v>
@@ -31810,7 +31750,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.651754354025234</v>
+        <v>1.677255748133189</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.710586929893054</v>
@@ -31899,7 +31839,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.794236930575221</v>
+        <v>1.799684832291937</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.73493824796716</v>
@@ -31988,7 +31928,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.767733976090678</v>
+        <v>1.77671178691678</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.624527683079263</v>
@@ -32077,7 +32017,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.755587703218713</v>
+        <v>1.772852766115977</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.659852304328325</v>
@@ -32166,7 +32106,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.756900255757783</v>
+        <v>1.778415262963768</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.536681013078462</v>
@@ -32255,7 +32195,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.726313804095874</v>
+        <v>1.757707879542203</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.578049748692112</v>
@@ -32344,7 +32284,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.764559206560873</v>
+        <v>1.791455508634317</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.587103286234806</v>
@@ -32433,7 +32373,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.737824850359869</v>
+        <v>1.760677308074434</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.678843501992878</v>
@@ -32522,7 +32462,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.698481728510557</v>
+        <v>1.728431071898505</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.644079042805123</v>
@@ -32611,7 +32551,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.676048559152482</v>
+        <v>1.716607046899868</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.672998881504723</v>
@@ -32700,7 +32640,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.686101587866716</v>
+        <v>1.723727104783193</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.743998823730025</v>
@@ -32789,7 +32729,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.684453597609655</v>
+        <v>1.725467299332081</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.91183612250134</v>
@@ -32878,7 +32818,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.688287467305195</v>
+        <v>1.732463219408606</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.789705320610075</v>
@@ -32967,7 +32907,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.697218812643086</v>
+        <v>1.739701667513021</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.893592393092659</v>
@@ -33056,7 +32996,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.692994882819702</v>
+        <v>1.732154967585681</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.734559138739149</v>
@@ -33145,7 +33085,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662022862758918</v>
+        <v>1.702323628781298</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.789387181264645</v>
@@ -33234,7 +33174,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.665095426610314</v>
+        <v>1.707928810183262</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.692318805834499</v>
@@ -33323,7 +33263,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689834626095323</v>
+        <v>1.734088992915506</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.542376458611896</v>
@@ -33412,7 +33352,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.700064993187785</v>
+        <v>1.745766001841006</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.90481332658927</v>
@@ -33501,7 +33441,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.586426471634868</v>
+        <v>1.580700021754386</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.640066102062026</v>
@@ -33590,7 +33530,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.454953990332753</v>
+        <v>1.484391921104973</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.663487347574525</v>
@@ -33679,7 +33619,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.476021557148436</v>
+        <v>1.512814208659668</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.702440911490616</v>
@@ -33768,7 +33708,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.494851062495994</v>
+        <v>1.533224811138618</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.71839353031282</v>
@@ -33857,7 +33797,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.504681776802572</v>
+        <v>1.541968340013435</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.736057126736978</v>
@@ -33946,7 +33886,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.518524739227903</v>
+        <v>1.554784395344012</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.730818750277165</v>
@@ -34035,7 +33975,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.520599159902321</v>
+        <v>1.55833068521735</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.735447231407706</v>
@@ -34124,7 +34064,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.519839546453753</v>
+        <v>1.557803331138019</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.730748262646158</v>
